--- a/biology/Botanique/Forêt_de_Ben_Aknoun/Forêt_de_Ben_Aknoun.xlsx
+++ b/biology/Botanique/Forêt_de_Ben_Aknoun/Forêt_de_Ben_Aknoun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Ben_Aknoun</t>
+          <t>Forêt_de_Ben_Aknoun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La forêt de Ben Aknoun est une forêt située à Ben Aknoun dans la wilaya d'Alger[7]. Cette forêt est gérée par la Conservation des forêts d'Alger sous la tutelle de la Direction générale des forêts (DGF).
+La forêt de Ben Aknoun est une forêt située à Ben Aknoun dans la wilaya d'Alger. Cette forêt est gérée par la Conservation des forêts d'Alger sous la tutelle de la Direction générale des forêts (DGF).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Ben_Aknoun</t>
+          <t>Forêt_de_Ben_Aknoun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Ben Aknoun est située à 20 kilomètres au sud-ouest d'Alger[8]. Elle est localisée dans la commune de Ben Aknoun dans la Mitidja de la Basse Kabylie[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Ben Aknoun est située à 20 kilomètres au sud-ouest d'Alger. Elle est localisée dans la commune de Ben Aknoun dans la Mitidja de la Basse Kabylie.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Ben_Aknoun</t>
+          <t>Forêt_de_Ben_Aknoun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Ben Aknoun est régie par le décret no 84-45 du 18 février 1984[18], modifié et complété par le décret no 07-231 du 30 juillet 2007[2]. Sa superficie atteint 304 hectares, dont les deux tiers sont boisés[19].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Ben Aknoun est régie par le décret no 84-45 du 18 février 1984, modifié et complété par le décret no 07-231 du 30 juillet 2007. Sa superficie atteint 304 hectares, dont les deux tiers sont boisés.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Ben_Aknoun</t>
+          <t>Forêt_de_Ben_Aknoun</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,14 +590,11 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La faune de la forêt de Ben Aknoun est riche en diversité zoologique, ornithologique et entomologique[20].
-Mammifères
-Lapin de garenne
-Le lapin de garenne (Oryctolagus cuniculus) est un rongeur lagomorphe dont les effectifs sauvages sont communs en Algérie mais en déclin[21].
-Lièvre du cap
-Le lièvre du Cap (Lepus capensis) est une espèce de lièvre originaire d'Afrique.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La faune de la forêt de Ben Aknoun est riche en diversité zoologique, ornithologique et entomologique.
 </t>
         </is>
       </c>
@@ -592,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Ben_Aknoun</t>
+          <t>Forêt_de_Ben_Aknoun</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,12 +620,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Flore</t>
+          <t>Faune</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette forêt est peuplée essentiellement de pins d'Alep et de pins maritimes[22].
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lapin de garenne</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lapin de garenne (Oryctolagus cuniculus) est un rongeur lagomorphe dont les effectifs sauvages sont communs en Algérie mais en déclin.
 </t>
         </is>
       </c>
@@ -623,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Ben_Aknoun</t>
+          <t>Forêt_de_Ben_Aknoun</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,10 +661,86 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lièvre du cap</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lièvre du Cap (Lepus capensis) est une espèce de lièvre originaire d'Afrique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_de_Ben_Aknoun</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Ben_Aknoun</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette forêt est peuplée essentiellement de pins d'Alep et de pins maritimes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forêt_de_Ben_Aknoun</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Ben_Aknoun</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Parc zoologique et d'attraction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de Ben Aknoun est un parc, situé dans cette forêt au sud-ouest d'Alger, qui a ouvert ses portes dans le quartier Saïd Hamdine en 1982. Ce parc, d'une superficie de 304 hectares, comprend un zoo et un parc d'attractions.
 </t>
